--- a/data/trans_dic/P9_2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P9_2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que posee ordenador/ portátil en su vivienda actual</t>
+          <t>Población que posee ordenador/ portátil en su vivienda actual (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>88,97%</t>
+          <t>85,69%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>89,77%</t>
+          <t>85,86%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>91,89%</t>
+          <t>93,49%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>90,74%</t>
+          <t>93,55%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>90,57%</t>
+          <t>90,2%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>90,27%</t>
+          <t>90,13%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>78,08; 96,26</t>
+          <t>68,26; 96,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>79,22; 96,52</t>
+          <t>68,74; 96,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>83,5; 97,13</t>
+          <t>82,61; 98,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>81,11; 96,17</t>
+          <t>82,68; 97,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>84,61; 94,8</t>
+          <t>80,66; 95,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>84,23; 94,63</t>
+          <t>81,21; 95,97</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>82,82%</t>
+          <t>77,22%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>82,92%</t>
+          <t>77,06%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>82,29%</t>
+          <t>85,64%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>81,39%</t>
+          <t>85,11%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>82,55%</t>
+          <t>81,38%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>82,11%</t>
+          <t>81,04%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>58,16; 93,63</t>
+          <t>43,75; 93,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>60,05; 93,82</t>
+          <t>42,53; 93,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>73,25; 89,93</t>
+          <t>74,31; 94,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>71,61; 89,41</t>
+          <t>73,23; 93,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>70,27; 89,23</t>
+          <t>61,48; 90,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>70,31; 89,39</t>
+          <t>61,44; 90,49</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>87,59%</t>
+          <t>89,04%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>87,4%</t>
+          <t>88,89%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>92,38%</t>
+          <t>93,6%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>92,23%</t>
+          <t>93,72%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>90,17%</t>
+          <t>91,8%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>89,93%</t>
+          <t>91,88%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>74,02; 93,7</t>
+          <t>78,23; 95,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>72,09; 94,23</t>
+          <t>78,06; 95,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>87,37; 96,05</t>
+          <t>88,08; 97,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>87,05; 95,89</t>
+          <t>88,16; 97,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>83,52; 93,86</t>
+          <t>86,33; 95,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>81,94; 93,66</t>
+          <t>86,45; 95,58</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>90,75%</t>
+          <t>89,68%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>90,46%</t>
+          <t>89,84%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>84,03%</t>
+          <t>87,03%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>83,36%</t>
+          <t>86,91%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>87,05%</t>
+          <t>88,25%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>86,52%</t>
+          <t>88,26%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>84,33; 94,84</t>
+          <t>81,82; 94,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>83,94; 94,68</t>
+          <t>82,15; 94,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>78,57; 89,37</t>
+          <t>79,39; 92,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>77,6; 88,53</t>
+          <t>79,08; 92,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>82,71; 90,45</t>
+          <t>83,23; 92,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>81,79; 90,17</t>
+          <t>83,24; 92,83</t>
         </is>
       </c>
     </row>
@@ -921,32 +922,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>69,86%</t>
+          <t>70,49%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>71,02%</t>
+          <t>71,04%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>68,47%</t>
+          <t>72,27%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>67,97%</t>
+          <t>72,18%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>69,19%</t>
+          <t>71,25%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>69,56%</t>
+          <t>71,52%</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>60,27; 77,57</t>
+          <t>58,08; 79,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>61,57; 78,93</t>
+          <t>58,86; 80,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>57,76; 76,57</t>
+          <t>57,96; 82,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>57,14; 76,17</t>
+          <t>58,09; 82,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>62,66; 75,09</t>
+          <t>62,76; 79,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>63,03; 75,67</t>
+          <t>62,86; 79,73</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1002,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>54,96%</t>
+          <t>61,67%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>54,8%</t>
+          <t>61,16%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>44,88%</t>
+          <t>40,52%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>46,71%</t>
+          <t>40,48%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>49,37%</t>
+          <t>50,19%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>50,25%</t>
+          <t>49,63%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>44,53; 65,88</t>
+          <t>46,7; 77,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>44,09; 65,48</t>
+          <t>46,02; 76,93</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>34,47; 55,78</t>
+          <t>26,56; 57,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>36,19; 57,86</t>
+          <t>26,7; 57,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>41,99; 57,29</t>
+          <t>39,81; 61,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>42,84; 58,15</t>
+          <t>39,38; 61,3</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1082,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>80,01%</t>
+          <t>79,97%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>80,69%</t>
+          <t>79,93%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>78,31%</t>
+          <t>81,83%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>78,41%</t>
+          <t>81,39%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>79,11%</t>
+          <t>80,97%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>79,49%</t>
+          <t>80,72%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>75,34; 83,77</t>
+          <t>71,76; 84,53</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>75,86; 84,33</t>
+          <t>70,96; 84,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>74,82; 81,55</t>
+          <t>77,59; 85,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>75,06; 81,78</t>
+          <t>76,98; 85,1</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>76,63; 81,6</t>
+          <t>77,47; 83,98</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>76,96; 82,01</t>
+          <t>77,12; 83,88</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1164,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que posee ordenador/ portátil en su vivienda actual (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>73794</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>91888</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>109917</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>125358</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>183711</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>217246</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>58780; 82999</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>73564; 103255</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>97120; 115299</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>110787; 131213</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>164290; 195118</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>195742; 231312</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>105662</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>130038</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>114170</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>140522</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>219831</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>270559</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>59868; 127992</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>71762; 158399</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>99059; 125308</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>120908; 154978</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>166076; 244283</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>205103; 302103</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>124414</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>144051</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>201608</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>247477</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>326022</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>391528</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>109306; 133283</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>126502; 154565</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>189731; 209548</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>232813; 256916</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>306583; 339509</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>368387; 407298</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>146610</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>167721</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>166468</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>189780</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>313078</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>357500</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>133757; 155133</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>153373; 177170</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>151860; 177691</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>172681; 202658</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>295266; 329205</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>337159; 376040</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>97904</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>111826</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>74787</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>83874</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>172691</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>195700</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>80671; 111011</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>92658; 126779</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>59982; 85659</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>67502; 96303</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>152115; 193198</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>172003; 218173</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>55648</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>66857</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>43361</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>55698</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>99009</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>122554</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>42141; 69691</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>50307; 84102</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>28424; 61163</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>36739; 78638</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>78529; 122002</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>97231; 151364</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>253.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>253.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>329.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>329.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>582.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>582.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>604031</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>712380</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>710311</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>842707</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1314342</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>1555088</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>541971; 638445</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>632460; 754079</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>673533; 741465</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>797064; 881065</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1257665; 1363326</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>1485703; 1615940</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>